--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R8becd20f70ab47f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R6a843287dec34ead"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -43,7 +43,7 @@
     <x:t>System_Byte</x:t>
   </x:si>
   <x:si>
-    <x:t>Standard-Variablentabelle</x:t>
+    <x:t>Default tag table</x:t>
   </x:si>
   <x:si>
     <x:t>Byte</x:t>
@@ -142,7 +142,7 @@
     <x:t>Pumpe 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Variablentabelle_1</x:t>
+    <x:t>1~DI_14_DQ_10</x:t>
   </x:si>
   <x:si>
     <x:t>%Q0.2</x:t>
@@ -181,13 +181,16 @@
     <x:t>Vorlauftemperatur</x:t>
   </x:si>
   <x:si>
+    <x:t>1~AI_2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Int</x:t>
   </x:si>
   <x:si>
     <x:t>%IW64</x:t>
   </x:si>
   <x:si>
-    <x:t>Rücklauftemperatur</x:t>
+    <x:t>Ruecklauftemperatur</x:t>
   </x:si>
   <x:si>
     <x:t>%IW66</x:t>
@@ -232,7 +235,7 @@
     <x:t>Motorschutzschalter Pumpe 4 OK</x:t>
   </x:si>
   <x:si>
-    <x:t>Variablentabelle_2</x:t>
+    <x:t>2~DI_16_DQ_16x24VDC</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.0</x:t>
@@ -247,7 +250,7 @@
     <x:t>Sollwert Ventilator 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Variablentabelle_5</x:t>
+    <x:t>5~AQ_4</x:t>
   </x:si>
   <x:si>
     <x:t>%QW144</x:t>
@@ -298,7 +301,7 @@
     <x:t>Reserve(24)</x:t>
   </x:si>
   <x:si>
-    <x:t>Variablentabelle_3</x:t>
+    <x:t>3~DI_16x24VDC</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.6</x:t>
@@ -361,57 +364,6 @@
     <x:t>%I13.7</x:t>
   </x:si>
   <x:si>
-    <x:t>tPumpe1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe1Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe1Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe2Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe2Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe3Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tPumpe4Betrieb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M100.7</x:t>
-  </x:si>
-  <x:si>
     <x:t>Steuerspannung Ein</x:t>
   </x:si>
   <x:si>
@@ -667,7 +619,7 @@
     <x:t>Hebeanlage 1 Differenzdruck</x:t>
   </x:si>
   <x:si>
-    <x:t>Variablentabelle_4</x:t>
+    <x:t>4~AI_4x13BIT</x:t>
   </x:si>
   <x:si>
     <x:t>%IW128</x:t>
@@ -1431,13 +1383,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
@@ -1460,16 +1412,16 @@
     </x:row>
     <x:row r="23">
       <x:c r="A23" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
@@ -1492,7 +1444,7 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>44</x:v>
@@ -1501,7 +1453,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
@@ -1524,7 +1476,7 @@
     </x:row>
     <x:row r="25">
       <x:c r="A25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>44</x:v>
@@ -1533,10 +1485,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>15</x:v>
@@ -1556,7 +1508,7 @@
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>44</x:v>
@@ -1565,7 +1517,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
@@ -1588,7 +1540,7 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>44</x:v>
@@ -1597,7 +1549,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>14</x:v>
@@ -1620,7 +1572,7 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>44</x:v>
@@ -1629,7 +1581,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>14</x:v>
@@ -1652,7 +1604,7 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>44</x:v>
@@ -1661,7 +1613,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>14</x:v>
@@ -1684,16 +1636,16 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
         <x:v>14</x:v>
@@ -1716,16 +1668,16 @@
     </x:row>
     <x:row r="31">
       <x:c r="A31" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>14</x:v>
@@ -1748,16 +1700,16 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>14</x:v>
@@ -1780,16 +1732,16 @@
     </x:row>
     <x:row r="33">
       <x:c r="A33" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
         <x:v>14</x:v>
@@ -1812,7 +1764,7 @@
     </x:row>
     <x:row r="34">
       <x:c r="A34" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>44</x:v>
@@ -1821,7 +1773,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>14</x:v>
@@ -1844,7 +1796,7 @@
     </x:row>
     <x:row r="35">
       <x:c r="A35" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>44</x:v>
@@ -1853,7 +1805,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
         <x:v>14</x:v>
@@ -1876,7 +1828,7 @@
     </x:row>
     <x:row r="36">
       <x:c r="A36" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>44</x:v>
@@ -1885,7 +1837,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
         <x:v>14</x:v>
@@ -1908,7 +1860,7 @@
     </x:row>
     <x:row r="37">
       <x:c r="A37" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>44</x:v>
@@ -1917,7 +1869,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
         <x:v>14</x:v>
@@ -1940,7 +1892,7 @@
     </x:row>
     <x:row r="38">
       <x:c r="A38" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>44</x:v>
@@ -1949,7 +1901,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
         <x:v>14</x:v>
@@ -1972,7 +1924,7 @@
     </x:row>
     <x:row r="39">
       <x:c r="A39" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>44</x:v>
@@ -1981,7 +1933,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
         <x:v>14</x:v>
@@ -2004,16 +1956,16 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
         <x:v>14</x:v>
@@ -2036,16 +1988,16 @@
     </x:row>
     <x:row r="41">
       <x:c r="A41" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
         <x:v>14</x:v>
@@ -2068,16 +2020,16 @@
     </x:row>
     <x:row r="42">
       <x:c r="A42" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
         <x:v>14</x:v>
@@ -2100,16 +2052,16 @@
     </x:row>
     <x:row r="43">
       <x:c r="A43" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
         <x:v>14</x:v>
@@ -2132,19 +2084,19 @@
     </x:row>
     <x:row r="44">
       <x:c r="A44" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
         <x:v>15</x:v>
@@ -2164,16 +2116,16 @@
     </x:row>
     <x:row r="45">
       <x:c r="A45" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
         <x:v>14</x:v>
@@ -2196,16 +2148,16 @@
     </x:row>
     <x:row r="46">
       <x:c r="A46" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
         <x:v>14</x:v>
@@ -2228,16 +2180,16 @@
     </x:row>
     <x:row r="47">
       <x:c r="A47" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
         <x:v>14</x:v>
@@ -2260,16 +2212,16 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
         <x:v>14</x:v>
@@ -2292,16 +2244,16 @@
     </x:row>
     <x:row r="49">
       <x:c r="A49" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
         <x:v>14</x:v>
@@ -2324,10 +2276,10 @@
     </x:row>
     <x:row r="50">
       <x:c r="A50" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>17</x:v>
@@ -2359,7 +2311,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>17</x:v>
@@ -2391,7 +2343,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>17</x:v>
@@ -2423,7 +2375,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>17</x:v>
@@ -2455,7 +2407,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>17</x:v>
@@ -2464,7 +2416,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>15</x:v>
@@ -2487,7 +2439,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>17</x:v>
@@ -2496,7 +2448,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
         <x:v>15</x:v>
@@ -2519,7 +2471,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>17</x:v>
@@ -2528,7 +2480,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>15</x:v>
@@ -2551,7 +2503,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>17</x:v>
@@ -2560,7 +2512,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>15</x:v>
@@ -2583,7 +2535,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>17</x:v>
@@ -2615,7 +2567,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>17</x:v>
@@ -2647,7 +2599,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>17</x:v>
@@ -2679,7 +2631,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>17</x:v>
@@ -2711,7 +2663,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>17</x:v>
@@ -2720,7 +2672,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
         <x:v>15</x:v>
@@ -2743,7 +2695,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>17</x:v>
@@ -2752,7 +2704,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>15</x:v>
@@ -2775,7 +2727,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>17</x:v>
@@ -2784,7 +2736,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>15</x:v>
@@ -2807,7 +2759,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>17</x:v>
@@ -2816,7 +2768,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
         <x:v>15</x:v>
@@ -2839,7 +2791,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>17</x:v>
@@ -2848,7 +2800,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
         <x:v>15</x:v>
@@ -2871,7 +2823,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>17</x:v>
@@ -2880,7 +2832,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
         <x:v>15</x:v>
@@ -2903,7 +2855,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>17</x:v>
@@ -2912,7 +2864,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
         <x:v>15</x:v>
@@ -2935,7 +2887,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>17</x:v>
@@ -2944,7 +2896,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
         <x:v>15</x:v>
@@ -2967,7 +2919,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>17</x:v>
@@ -2976,7 +2928,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
         <x:v>15</x:v>
@@ -2999,7 +2951,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>17</x:v>
@@ -3008,7 +2960,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
         <x:v>15</x:v>
@@ -3031,7 +2983,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>17</x:v>
@@ -3040,7 +2992,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
         <x:v>15</x:v>
@@ -3063,7 +3015,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>17</x:v>
@@ -3072,7 +3024,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
         <x:v>15</x:v>
@@ -3095,7 +3047,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>17</x:v>
@@ -3104,7 +3056,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
         <x:v>15</x:v>
@@ -3127,7 +3079,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>17</x:v>
@@ -3136,7 +3088,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
         <x:v>15</x:v>
@@ -3159,7 +3111,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>17</x:v>
@@ -3168,7 +3120,7 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
         <x:v>15</x:v>
@@ -3191,7 +3143,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>17</x:v>
@@ -3200,7 +3152,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
         <x:v>15</x:v>
@@ -3223,7 +3175,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>17</x:v>
@@ -3232,7 +3184,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
         <x:v>15</x:v>
@@ -3255,7 +3207,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>17</x:v>
@@ -3264,7 +3216,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
         <x:v>15</x:v>
@@ -3287,7 +3239,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>17</x:v>
@@ -3319,7 +3271,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>17</x:v>
@@ -3351,7 +3303,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>17</x:v>
@@ -3383,7 +3335,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>17</x:v>
@@ -3415,7 +3367,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>17</x:v>
@@ -3447,7 +3399,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>17</x:v>
@@ -3479,7 +3431,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>17</x:v>
@@ -3511,7 +3463,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>17</x:v>
@@ -3543,7 +3495,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>17</x:v>
@@ -3575,7 +3527,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>17</x:v>
@@ -3607,7 +3559,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>17</x:v>
@@ -3639,7 +3591,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>17</x:v>
@@ -3671,16 +3623,16 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
         <x:v>15</x:v>
@@ -3700,19 +3652,19 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
         <x:v>15</x:v>
@@ -3732,16 +3684,16 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>14</x:v>
@@ -3764,16 +3716,16 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>14</x:v>
@@ -3796,19 +3748,19 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
         <x:v>15</x:v>
@@ -3828,19 +3780,19 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
         <x:v>15</x:v>
@@ -3855,262 +3807,6 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98">
-      <x:c r="A98" s="0" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C98" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="E98" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I98" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J98" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99">
-      <x:c r="A99" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C99" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D99" s="0" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="E99" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I99" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J99" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100">
-      <x:c r="A100" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C100" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D100" s="0" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="E100" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I100" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J100" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101">
-      <x:c r="A101" s="0" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C101" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102">
-      <x:c r="A102" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C102" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D102" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="E102" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I102" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J102" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103">
-      <x:c r="A103" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="C103" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D103" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="E103" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F103" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G103" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H103" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I103" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J103" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104">
-      <x:c r="A104" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C104" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D104" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="E104" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F104" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G104" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H104" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I104" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J104" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105">
-      <x:c r="A105" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C105" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D105" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="E105" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F105" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G105" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H105" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I105" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J105" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>

--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R6a843287dec34ead"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R85243ccbbb834413"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R96f2725bbc4f47b3"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -226,7 +227,7 @@
     <x:t>%I1.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Betrieb Pumpe 3</x:t>
+    <x:t>RESERVE(1)</x:t>
   </x:si>
   <x:si>
     <x:t>%I1.5</x:t>
@@ -241,7 +242,7 @@
     <x:t>%I8.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Betrieb Pumpe 4</x:t>
+    <x:t>RESERVE</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.1</x:t>
@@ -262,15 +263,15 @@
     <x:t>%QW146</x:t>
   </x:si>
   <x:si>
+    <x:t>Ventilator 1 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.3</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ventilator 1 Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>%I0.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 1 Betrieb</x:t>
-  </x:si>
-  <x:si>
     <x:t>%I0.2</x:t>
   </x:si>
   <x:si>
@@ -280,15 +281,15 @@
     <x:t>%I0.4</x:t>
   </x:si>
   <x:si>
+    <x:t>Ventilator 2 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.6</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ventilator 2 Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>%I0.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ventilator 2 Betrieb</x:t>
-  </x:si>
-  <x:si>
     <x:t>%I0.5</x:t>
   </x:si>
   <x:si>
@@ -298,7 +299,7 @@
     <x:t>%I0.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(24)</x:t>
+    <x:t>Reserve DI 10</x:t>
   </x:si>
   <x:si>
     <x:t>3~DI_16x24VDC</x:t>
@@ -307,19 +308,19 @@
     <x:t>%I12.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(25)</x:t>
+    <x:t>Reserve DI 11</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(26)</x:t>
+    <x:t>Reserve DI 12</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(27)</x:t>
+    <x:t>Reserve DI 13</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.1</x:t>
@@ -334,7 +335,7 @@
     <x:t>akk</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(29)</x:t>
+    <x:t>Reserve DI 15</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.3</x:t>
@@ -352,13 +353,13 @@
     <x:t>%I9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(32)</x:t>
+    <x:t>Reserve DI 18</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(33)</x:t>
+    <x:t>Reserve DI 19</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.7</x:t>
@@ -376,13 +377,13 @@
     <x:t>%I0.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(1)</x:t>
+    <x:t>Rundumleuchte Störung</x:t>
   </x:si>
   <x:si>
     <x:t>%Q0.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(2)</x:t>
+    <x:t>Reserve DQ 1</x:t>
   </x:si>
   <x:si>
     <x:t>%Q0.7</x:t>
@@ -412,25 +413,28 @@
     <x:t>%I8.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(3)</x:t>
+    <x:t>Reserve DI 1 ???</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(4)</x:t>
+    <x:t>???</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI 2 ???</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(5)</x:t>
+    <x:t>Reserve DI 3</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(6)</x:t>
+    <x:t>Reserve DI 4</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.7</x:t>
@@ -496,121 +500,121 @@
     <x:t>%Q8.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(7)</x:t>
+    <x:t>Reserve DQ 2</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(8)</x:t>
+    <x:t>Reserve DQ 3</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(9)</x:t>
+    <x:t>Reserve DQ 4</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(10)</x:t>
+    <x:t>Reserve DQ 5</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(11)</x:t>
+    <x:t>Reserve DQ 6</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(12)</x:t>
+    <x:t>Reserve DQ 7</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(13)</x:t>
+    <x:t>Reserve DQ 8</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(14)</x:t>
+    <x:t>Reserve DQ 9</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(15)</x:t>
+    <x:t>Reserve DQ 10</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(16)</x:t>
+    <x:t>Reserve DQ 11</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(17)</x:t>
+    <x:t>Reserve DQ 12</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(18)</x:t>
+    <x:t>Reserve DQ 13</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(19)</x:t>
+    <x:t>Reserve DI 5</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(20)</x:t>
+    <x:t>Reserve DI 6</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(21)</x:t>
+    <x:t>Reserve DI 7</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(22)</x:t>
+    <x:t>Reserve DI 8</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(23)</x:t>
+    <x:t>Reserve DI 9</x:t>
   </x:si>
   <x:si>
     <x:t>%I12.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(28)</x:t>
+    <x:t>Reserve DI 14</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(30)</x:t>
+    <x:t>Reserve DI 16</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(31)</x:t>
+    <x:t>Reserve DI 17</x:t>
   </x:si>
   <x:si>
     <x:t>%I13.5</x:t>
@@ -631,13 +635,13 @@
     <x:t>%IW130</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(34)</x:t>
+    <x:t>Reserve IW 1</x:t>
   </x:si>
   <x:si>
     <x:t>%IW132</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve(35)</x:t>
+    <x:t>Reserve IW 2</x:t>
   </x:si>
   <x:si>
     <x:t>%IW134</x:t>
@@ -653,6 +657,21 @@
   </x:si>
   <x:si>
     <x:t>%QW150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxAI10Bit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DInt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Max 10 Bit</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1488,7 +1507,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
         <x:v>15</x:v>
@@ -2352,7 +2371,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
         <x:v>15</x:v>
@@ -2544,7 +2563,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>15</x:v>
@@ -2564,7 +2583,7 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>75</x:v>
@@ -2573,10 +2592,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
         <x:v>15</x:v>
@@ -2596,7 +2615,7 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>75</x:v>
@@ -2605,7 +2624,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>14</x:v>
@@ -2628,7 +2647,7 @@
     </x:row>
     <x:row r="61">
       <x:c r="A61" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>75</x:v>
@@ -2637,7 +2656,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>14</x:v>
@@ -2660,7 +2679,7 @@
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>75</x:v>
@@ -2669,7 +2688,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
         <x:v>107</x:v>
@@ -2692,7 +2711,7 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>75</x:v>
@@ -2701,7 +2720,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
         <x:v>107</x:v>
@@ -2724,7 +2743,7 @@
     </x:row>
     <x:row r="64">
       <x:c r="A64" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>75</x:v>
@@ -2733,7 +2752,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
         <x:v>107</x:v>
@@ -2756,7 +2775,7 @@
     </x:row>
     <x:row r="65">
       <x:c r="A65" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>75</x:v>
@@ -2765,7 +2784,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
         <x:v>107</x:v>
@@ -2788,7 +2807,7 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>75</x:v>
@@ -2797,7 +2816,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>107</x:v>
@@ -2820,7 +2839,7 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>75</x:v>
@@ -2829,7 +2848,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>107</x:v>
@@ -2852,7 +2871,7 @@
     </x:row>
     <x:row r="68">
       <x:c r="A68" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>75</x:v>
@@ -2861,7 +2880,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
         <x:v>107</x:v>
@@ -2884,7 +2903,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>75</x:v>
@@ -2893,7 +2912,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
         <x:v>107</x:v>
@@ -2916,7 +2935,7 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>75</x:v>
@@ -2925,7 +2944,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>107</x:v>
@@ -2948,7 +2967,7 @@
     </x:row>
     <x:row r="71">
       <x:c r="A71" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>75</x:v>
@@ -2957,7 +2976,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>107</x:v>
@@ -2980,7 +2999,7 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>75</x:v>
@@ -2989,7 +3008,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>14</x:v>
@@ -3012,7 +3031,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>75</x:v>
@@ -3021,7 +3040,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>14</x:v>
@@ -3044,7 +3063,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>75</x:v>
@@ -3053,7 +3072,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>14</x:v>
@@ -3076,7 +3095,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>75</x:v>
@@ -3085,7 +3104,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>14</x:v>
@@ -3108,7 +3127,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>75</x:v>
@@ -3117,7 +3136,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
         <x:v>14</x:v>
@@ -3140,7 +3159,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>75</x:v>
@@ -3149,7 +3168,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>14</x:v>
@@ -3172,7 +3191,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>75</x:v>
@@ -3181,7 +3200,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>14</x:v>
@@ -3204,7 +3223,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>75</x:v>
@@ -3213,7 +3232,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>14</x:v>
@@ -3236,7 +3255,7 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>75</x:v>
@@ -3245,7 +3264,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>14</x:v>
@@ -3268,7 +3287,7 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>75</x:v>
@@ -3277,7 +3296,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>14</x:v>
@@ -3300,7 +3319,7 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>75</x:v>
@@ -3309,7 +3328,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>14</x:v>
@@ -3332,7 +3351,7 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>75</x:v>
@@ -3341,7 +3360,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>14</x:v>
@@ -3364,7 +3383,7 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>97</x:v>
@@ -3373,7 +3392,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
         <x:v>14</x:v>
@@ -3396,7 +3415,7 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>97</x:v>
@@ -3405,7 +3424,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
         <x:v>14</x:v>
@@ -3428,7 +3447,7 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>97</x:v>
@@ -3437,7 +3456,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
         <x:v>14</x:v>
@@ -3460,7 +3479,7 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>97</x:v>
@@ -3469,7 +3488,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
         <x:v>14</x:v>
@@ -3492,7 +3511,7 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>97</x:v>
@@ -3501,7 +3520,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>14</x:v>
@@ -3524,7 +3543,7 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>97</x:v>
@@ -3533,7 +3552,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>14</x:v>
@@ -3556,7 +3575,7 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>97</x:v>
@@ -3565,7 +3584,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>14</x:v>
@@ -3588,7 +3607,7 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>97</x:v>
@@ -3597,7 +3616,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>14</x:v>
@@ -3620,16 +3639,16 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
         <x:v>107</x:v>
@@ -3652,16 +3671,16 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
         <x:v>107</x:v>
@@ -3684,16 +3703,16 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>14</x:v>
@@ -3716,16 +3735,16 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>14</x:v>
@@ -3748,7 +3767,7 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>80</x:v>
@@ -3757,7 +3776,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
         <x:v>107</x:v>
@@ -3780,7 +3799,7 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>80</x:v>
@@ -3789,7 +3808,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
         <x:v>107</x:v>
@@ -3808,6 +3827,47 @@
       </x:c>
       <x:c r="J97" s="0" t="s">
         <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>220</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R61227bc51cf940bb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R0e13c1e1f66e49d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R8f5830105b49403f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R7b8c67a44c0d40e4"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -41,217 +41,757 @@
     <x:t>Version ID</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Pumpe 4 OK</x:t>
+    <x:t>System_Byte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Default tag table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Byte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%MB1</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FirstScan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bool</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DiagStatusUpdate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AlwaysTRUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AlwaysFALSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_Byte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%MB0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_10Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_5Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_2.5Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_2Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_1.25Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_1Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_0.625Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock_0.5Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M0.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1~DI_14_DQ_10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Ventilator</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Werk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1~AI_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Ofen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 1 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 1 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Werkspumpe 2 Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1 MSS</x:t>
   </x:si>
   <x:si>
     <x:t>2~DI_16_DQ_16x24VDC</x:t>
   </x:si>
   <x:si>
-    <x:t>Bool</x:t>
-  </x:si>
-  <x:si>
     <x:t>%I8.0</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RESERVE</x:t>
+    <x:t>Kühlwasserpumpe 1 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 2 MSS</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 1</x:t>
+    <x:t>Kühlwasserpumpe 2 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5~AQ_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%QW144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%QW146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Sollwert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Ventilator RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Ventilator Reparaturschalter ein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Ventilator Betrieb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Ventilator RS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Ventilator Reparaturschalter ein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3~DI_16x24VDC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Absalzanlage läuft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Absalzanlage Umwälzpumpe läuft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Sprührohr-Klappen geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I9.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr-Klappen geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I9.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steuerspannung Ein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sicherung Ausgänge OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rundumleuchte Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ0.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q0.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 1 Sprührohr-Klappen öffnen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr-Klappen öffnen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%Q1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1 MSS</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.2</x:t>
   </x:si>
   <x:si>
-    <x:t>akk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 2</x:t>
+    <x:t>Ofenpumpe 1 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 2 MSS</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DI 1 ???</x:t>
+    <x:t>Ofenpumpe 2 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlwasserpumpe 1 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.4</x:t>
   </x:si>
   <x:si>
-    <x:t>???</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reserve DI 2 ???</x:t>
+    <x:t>Kühlwasserpumpe 2 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DI 3</x:t>
+    <x:t>Ofenpumpe 1 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DI 4</x:t>
+    <x:t>Ofenpumpe 2 Betrieb</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.7</x:t>
   </x:si>
   <x:si>
-    <x:t>ZU-Klappen 1 geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%I9.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZU-Klappen 2 geöffnet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%I9.1</x:t>
+    <x:t>HA 1 Klappe geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I9.2</x:t>
   </x:si>
   <x:si>
     <x:t>Hebeanlage 1 Klappe geöffnet</x:t>
   </x:si>
   <x:si>
-    <x:t>%I9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hebeanlage 2 Klappe geöffnet</x:t>
+    <x:t>HA 1 Klappe geschlossen</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Behälter Hebeanlage Trockenlaufschutz</x:t>
+    <x:t>Hebeanlage 1 Klappe geschlossen Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe geöffnet</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Behälter Hebeanlage Pumpe ein</x:t>
+    <x:t>Hebeanlage 2 Klappe geöffnet </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe geschlossen</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Behälter Hebeanlage Pumpe aus</x:t>
+    <x:t>Hebeanlage 2 Klappe geschlossen Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI9.6</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Behälter Hebeanlage Überlauf</x:t>
+    <x:t>Reserve DI9.7</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Hebeanlage 1 öffnen</x:t>
+    <x:t>HA 1 Klappe Freigabe</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Hebeanlage 2 öffnen</x:t>
+    <x:t>Hebeanlage 1 Klappe Freigabe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe Freigabe</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Pumpe Hebeanlage 1</x:t>
+    <x:t>Hebeanlage 2 Klappe Freigabe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Pumpe Hebeanlage 2</x:t>
+    <x:t>Ofenpumpe 2</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 2</x:t>
+    <x:t>Reserve DQ8.4</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 3</x:t>
+    <x:t>Reserve DQ8.5</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 4</x:t>
+    <x:t>Reserve DQ8.6</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 5</x:t>
+    <x:t>Reserve DQ8.7</x:t>
   </x:si>
   <x:si>
     <x:t>%Q8.7</x:t>
   </x:si>
   <x:si>
-    <x:t>Magnetventil Nachfüllung Wasserbehälter</x:t>
+    <x:t>WSB Magnetventil</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 7</x:t>
+    <x:t>Wasserstation Behälter Magnetventil Nachfüllung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DQ9.1</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 8</x:t>
+    <x:t>Reserve DQ9.2</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.2</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 9</x:t>
+    <x:t>Reserve DQ9.3</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.3</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 10</x:t>
+    <x:t>Reserve DQ9.4</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.4</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 11</x:t>
+    <x:t>Reserve DQ9.5</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 12</x:t>
+    <x:t>Reserve DQ9.6</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.6</x:t>
   </x:si>
   <x:si>
-    <x:t>Reserve DQ 13</x:t>
+    <x:t>Reserve DQ9.7</x:t>
   </x:si>
   <x:si>
     <x:t>%Q9.7</x:t>
   </x:si>
   <x:si>
+    <x:t>WSB OUT1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Behälter Füllstand binär Bit 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Behälter Füllstand binär Bit 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Behälter Füllstand binär Bit 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Behälter Füllstand binär Bit 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI12.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I12.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve DI13.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%I13.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4~AI_4x13BIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage 1 Differenzdruck Filter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage 2 Differenzdruck Filter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reserve IW134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%IW134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 1 Klappe Durchflußmenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%QW148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage 1 Klappe Durchflußmenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HA 2 Klappe Durchflußmenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%QW150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage 2 Klappe Durchflußmenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT1 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M12.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT2 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M12.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT3 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M12.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT4 M</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%M12.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WSB OUT Byte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>%MB12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Behälter Füllstand binär Byte</x:t>
+  </x:si>
+  <x:si>
     <x:t>Value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxAI10Bit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27648</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AI Max 10 Bit</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -377,10 +917,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>14</x:v>
@@ -403,19 +943,19 @@
     </x:row>
     <x:row r="4">
       <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>15</x:v>
@@ -441,13 +981,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>15</x:v>
@@ -473,13 +1013,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>15</x:v>
@@ -499,7 +1039,7 @@
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>11</x:v>
@@ -508,10 +1048,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
         <x:v>15</x:v>
@@ -531,16 +1071,16 @@
     </x:row>
     <x:row r="8">
       <x:c r="A8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>14</x:v>
@@ -563,16 +1103,16 @@
     </x:row>
     <x:row r="9">
       <x:c r="A9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>14</x:v>
@@ -595,16 +1135,16 @@
     </x:row>
     <x:row r="10">
       <x:c r="A10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
         <x:v>14</x:v>
@@ -627,16 +1167,16 @@
     </x:row>
     <x:row r="11">
       <x:c r="A11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
         <x:v>14</x:v>
@@ -659,19 +1199,19 @@
     </x:row>
     <x:row r="12">
       <x:c r="A12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
         <x:v>15</x:v>
@@ -691,19 +1231,19 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>15</x:v>
@@ -723,19 +1263,19 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
         <x:v>15</x:v>
@@ -755,19 +1295,19 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
         <x:v>15</x:v>
@@ -787,19 +1327,19 @@
     </x:row>
     <x:row r="16">
       <x:c r="A16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>15</x:v>
@@ -822,16 +1362,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>15</x:v>
@@ -854,16 +1394,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
         <x:v>15</x:v>
@@ -886,16 +1426,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
         <x:v>15</x:v>
@@ -918,16 +1458,16 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>15</x:v>
@@ -947,19 +1487,19 @@
     </x:row>
     <x:row r="21">
       <x:c r="A21" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
         <x:v>15</x:v>
@@ -979,16 +1519,16 @@
     </x:row>
     <x:row r="22">
       <x:c r="A22" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>14</x:v>
@@ -1011,16 +1551,16 @@
     </x:row>
     <x:row r="23">
       <x:c r="A23" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>14</x:v>
@@ -1043,16 +1583,16 @@
     </x:row>
     <x:row r="24">
       <x:c r="A24" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
         <x:v>14</x:v>
@@ -1075,16 +1615,16 @@
     </x:row>
     <x:row r="25">
       <x:c r="A25" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
         <x:v>14</x:v>
@@ -1107,16 +1647,16 @@
     </x:row>
     <x:row r="26">
       <x:c r="A26" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>14</x:v>
@@ -1139,16 +1679,16 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>14</x:v>
@@ -1171,16 +1711,16 @@
     </x:row>
     <x:row r="28">
       <x:c r="A28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>14</x:v>
@@ -1203,16 +1743,16 @@
     </x:row>
     <x:row r="29">
       <x:c r="A29" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
         <x:v>14</x:v>
@@ -1235,19 +1775,19 @@
     </x:row>
     <x:row r="30">
       <x:c r="A30" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
         <x:v>15</x:v>
@@ -1267,19 +1807,19 @@
     </x:row>
     <x:row r="31">
       <x:c r="A31" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
         <x:v>15</x:v>
@@ -1299,19 +1839,19 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
         <x:v>15</x:v>
@@ -1331,33 +1871,2241 @@
     </x:row>
     <x:row r="33">
       <x:c r="A33" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J33" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J34" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I35" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J35" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I39" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J45" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J57" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J58" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J61" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J65" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J66" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J68" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J69" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J72" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G81" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H81" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I81" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J81" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G82" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H82" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I82" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J82" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G83" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H83" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I83" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J83" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G84" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H84" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I84" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J84" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G85" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H85" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I85" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J85" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G86" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H86" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I86" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J86" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G87" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H87" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I87" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J87" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G88" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H88" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I88" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J88" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G89" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H89" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I89" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J89" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G90" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H90" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I90" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J90" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G91" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H91" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I91" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J91" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G92" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H92" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I92" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J92" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G93" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H93" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I93" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J93" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G94" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H94" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I94" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J94" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G95" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H95" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I95" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J95" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G96" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H96" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I96" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J96" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G97" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H97" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J97" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G98" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H98" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I98" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J98" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G99" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H99" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I99" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J99" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G100" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H100" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I100" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J100" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H101" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I101" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J101" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J33" s="0" t="s">
+      <x:c r="D102" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G102" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H102" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I102" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J102" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
@@ -1379,10 +4127,27 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>260</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R8f5830105b49403f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R7b8c67a44c0d40e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Ra55119103310467e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R4b82480dc0954b3f"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -239,7 +239,7 @@
     <x:t>%I1.5</x:t>
   </x:si>
   <x:si>
-    <x:t>Kühlwasserpumpe 1 MSS</x:t>
+    <x:t>Kühlwasserpumpe 1 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>2~DI_16_DQ_16x24VDC</x:t>
@@ -251,7 +251,7 @@
     <x:t>Kühlwasserpumpe 1 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Kühlwasserpumpe 2 MSS</x:t>
+    <x:t>Kühlwasserpumpe 2 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.1</x:t>
@@ -377,22 +377,22 @@
     <x:t>%I13.3</x:t>
   </x:si>
   <x:si>
-    <x:t>KT 1 Sprührohr-Klappen geöffnet</x:t>
+    <x:t>KT 1 Sprührohr geöffnet</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Kühlturm 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KT 2 Sprührohr-Klappen geöffnet</x:t>
+    <x:t>Kühlturm 1 Sprührohr Klappe Endschalter geöffnet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr geöffnet</x:t>
   </x:si>
   <x:si>
     <x:t>%I9.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Kühlturm 2</x:t>
+    <x:t>Kühlturm 2 Sprührohr Klappe Endschalter geöffnet</x:t>
   </x:si>
   <x:si>
     <x:t>Reserve DI13.6</x:t>
@@ -431,19 +431,25 @@
     <x:t>%Q0.7</x:t>
   </x:si>
   <x:si>
-    <x:t>KT 1 Sprührohr-Klappen öffnen</x:t>
+    <x:t>KT 1 Sprührohr öffnen</x:t>
   </x:si>
   <x:si>
     <x:t>%Q1.0</x:t>
   </x:si>
   <x:si>
-    <x:t>KT 2 Sprührohr-Klappen öffnen</x:t>
+    <x:t>Kühlturm 1 Sprührohr öffnen durch Klappe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KT 2 Sprührohr öffnen</x:t>
   </x:si>
   <x:si>
     <x:t>%Q1.1</x:t>
   </x:si>
   <x:si>
-    <x:t>Ofenpumpe 1 MSS</x:t>
+    <x:t>Kühlturm 2 Sprührohr öffnen durch Klappe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ofenpumpe 1 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.2</x:t>
@@ -452,7 +458,7 @@
     <x:t>Ofenpumpe 1 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Ofenpumpe 2 MSS</x:t>
+    <x:t>Ofenpumpe 2 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>%I8.3</x:t>
@@ -785,13 +791,22 @@
     <x:t>Value</x:t>
   </x:si>
   <x:si>
-    <x:t>MaxAI10Bit</x:t>
+    <x:t>AnalogMax</x:t>
   </x:si>
   <x:si>
     <x:t>27648</x:t>
   </x:si>
   <x:si>
-    <x:t>AI Max 10 Bit</x:t>
+    <x:t>Analog maximum value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AnalogMin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Analog minimum value</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2555,7 +2570,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
         <x:v>15</x:v>
@@ -2575,7 +2590,7 @@
     </x:row>
     <x:row r="55">
       <x:c r="A55" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>44</x:v>
@@ -2584,10 +2599,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
         <x:v>15</x:v>
@@ -2607,7 +2622,7 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>77</x:v>
@@ -2616,10 +2631,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
         <x:v>15</x:v>
@@ -2639,7 +2654,7 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>77</x:v>
@@ -2648,10 +2663,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
         <x:v>15</x:v>
@@ -2671,7 +2686,7 @@
     </x:row>
     <x:row r="58">
       <x:c r="A58" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>77</x:v>
@@ -2680,7 +2695,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
         <x:v>14</x:v>
@@ -2703,7 +2718,7 @@
     </x:row>
     <x:row r="59">
       <x:c r="A59" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>77</x:v>
@@ -2712,7 +2727,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
         <x:v>14</x:v>
@@ -2735,7 +2750,7 @@
     </x:row>
     <x:row r="60">
       <x:c r="A60" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>77</x:v>
@@ -2744,7 +2759,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
         <x:v>14</x:v>
@@ -2767,7 +2782,7 @@
     </x:row>
     <x:row r="61">
       <x:c r="A61" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>77</x:v>
@@ -2776,7 +2791,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
         <x:v>14</x:v>
@@ -2799,7 +2814,7 @@
     </x:row>
     <x:row r="62">
       <x:c r="A62" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>77</x:v>
@@ -2808,10 +2823,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
         <x:v>15</x:v>
@@ -2831,7 +2846,7 @@
     </x:row>
     <x:row r="63">
       <x:c r="A63" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>77</x:v>
@@ -2840,10 +2855,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
         <x:v>15</x:v>
@@ -2863,7 +2878,7 @@
     </x:row>
     <x:row r="64">
       <x:c r="A64" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>77</x:v>
@@ -2872,10 +2887,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
         <x:v>15</x:v>
@@ -2895,7 +2910,7 @@
     </x:row>
     <x:row r="65">
       <x:c r="A65" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>77</x:v>
@@ -2904,10 +2919,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
         <x:v>15</x:v>
@@ -2927,7 +2942,7 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>77</x:v>
@@ -2936,7 +2951,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
         <x:v>14</x:v>
@@ -2959,7 +2974,7 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>77</x:v>
@@ -2968,7 +2983,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
         <x:v>14</x:v>
@@ -2991,7 +3006,7 @@
     </x:row>
     <x:row r="68">
       <x:c r="A68" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>77</x:v>
@@ -3000,10 +3015,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
         <x:v>15</x:v>
@@ -3023,7 +3038,7 @@
     </x:row>
     <x:row r="69">
       <x:c r="A69" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>77</x:v>
@@ -3032,10 +3047,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
         <x:v>15</x:v>
@@ -3055,7 +3070,7 @@
     </x:row>
     <x:row r="70">
       <x:c r="A70" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>77</x:v>
@@ -3064,7 +3079,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
         <x:v>14</x:v>
@@ -3087,7 +3102,7 @@
     </x:row>
     <x:row r="71">
       <x:c r="A71" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>77</x:v>
@@ -3096,7 +3111,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
         <x:v>14</x:v>
@@ -3119,7 +3134,7 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>77</x:v>
@@ -3128,7 +3143,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
         <x:v>14</x:v>
@@ -3151,7 +3166,7 @@
     </x:row>
     <x:row r="73">
       <x:c r="A73" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>77</x:v>
@@ -3160,7 +3175,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
         <x:v>14</x:v>
@@ -3183,7 +3198,7 @@
     </x:row>
     <x:row r="74">
       <x:c r="A74" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>77</x:v>
@@ -3192,7 +3207,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
         <x:v>14</x:v>
@@ -3215,7 +3230,7 @@
     </x:row>
     <x:row r="75">
       <x:c r="A75" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>77</x:v>
@@ -3224,7 +3239,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
         <x:v>14</x:v>
@@ -3247,7 +3262,7 @@
     </x:row>
     <x:row r="76">
       <x:c r="A76" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>77</x:v>
@@ -3256,10 +3271,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
         <x:v>15</x:v>
@@ -3279,7 +3294,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>77</x:v>
@@ -3288,7 +3303,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E77" s="0" t="s">
         <x:v>14</x:v>
@@ -3311,7 +3326,7 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>77</x:v>
@@ -3320,7 +3335,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
         <x:v>14</x:v>
@@ -3343,7 +3358,7 @@
     </x:row>
     <x:row r="79">
       <x:c r="A79" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>77</x:v>
@@ -3352,7 +3367,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
         <x:v>14</x:v>
@@ -3375,7 +3390,7 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>77</x:v>
@@ -3384,7 +3399,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
         <x:v>14</x:v>
@@ -3407,7 +3422,7 @@
     </x:row>
     <x:row r="81">
       <x:c r="A81" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>77</x:v>
@@ -3416,7 +3431,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
         <x:v>14</x:v>
@@ -3439,7 +3454,7 @@
     </x:row>
     <x:row r="82">
       <x:c r="A82" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
         <x:v>77</x:v>
@@ -3448,7 +3463,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
         <x:v>14</x:v>
@@ -3471,7 +3486,7 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
         <x:v>77</x:v>
@@ -3480,7 +3495,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
         <x:v>14</x:v>
@@ -3503,7 +3518,7 @@
     </x:row>
     <x:row r="84">
       <x:c r="A84" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
         <x:v>109</x:v>
@@ -3512,10 +3527,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
         <x:v>15</x:v>
@@ -3535,7 +3550,7 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
         <x:v>109</x:v>
@@ -3544,10 +3559,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
         <x:v>15</x:v>
@@ -3567,7 +3582,7 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
         <x:v>109</x:v>
@@ -3576,10 +3591,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
         <x:v>15</x:v>
@@ -3599,7 +3614,7 @@
     </x:row>
     <x:row r="87">
       <x:c r="A87" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
         <x:v>109</x:v>
@@ -3608,10 +3623,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
         <x:v>15</x:v>
@@ -3631,7 +3646,7 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
         <x:v>109</x:v>
@@ -3640,7 +3655,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
         <x:v>14</x:v>
@@ -3663,7 +3678,7 @@
     </x:row>
     <x:row r="89">
       <x:c r="A89" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
         <x:v>109</x:v>
@@ -3672,7 +3687,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
         <x:v>14</x:v>
@@ -3695,7 +3710,7 @@
     </x:row>
     <x:row r="90">
       <x:c r="A90" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
         <x:v>109</x:v>
@@ -3704,7 +3719,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
         <x:v>14</x:v>
@@ -3727,7 +3742,7 @@
     </x:row>
     <x:row r="91">
       <x:c r="A91" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
         <x:v>109</x:v>
@@ -3736,7 +3751,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>14</x:v>
@@ -3759,19 +3774,19 @@
     </x:row>
     <x:row r="92">
       <x:c r="A92" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
         <x:v>15</x:v>
@@ -3791,19 +3806,19 @@
     </x:row>
     <x:row r="93">
       <x:c r="A93" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
         <x:v>15</x:v>
@@ -3823,16 +3838,16 @@
     </x:row>
     <x:row r="94">
       <x:c r="A94" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>14</x:v>
@@ -3855,16 +3870,16 @@
     </x:row>
     <x:row r="95">
       <x:c r="A95" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
         <x:v>14</x:v>
@@ -3887,7 +3902,7 @@
     </x:row>
     <x:row r="96">
       <x:c r="A96" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
         <x:v>84</x:v>
@@ -3896,10 +3911,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
         <x:v>15</x:v>
@@ -3919,7 +3934,7 @@
     </x:row>
     <x:row r="97">
       <x:c r="A97" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
         <x:v>84</x:v>
@@ -3928,10 +3943,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
         <x:v>15</x:v>
@@ -3951,7 +3966,7 @@
     </x:row>
     <x:row r="98">
       <x:c r="A98" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
         <x:v>109</x:v>
@@ -3960,10 +3975,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
         <x:v>15</x:v>
@@ -3983,7 +3998,7 @@
     </x:row>
     <x:row r="99">
       <x:c r="A99" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
         <x:v>109</x:v>
@@ -3992,10 +4007,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
         <x:v>15</x:v>
@@ -4015,7 +4030,7 @@
     </x:row>
     <x:row r="100">
       <x:c r="A100" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
         <x:v>109</x:v>
@@ -4024,10 +4039,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
         <x:v>15</x:v>
@@ -4047,7 +4062,7 @@
     </x:row>
     <x:row r="101">
       <x:c r="A101" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
         <x:v>109</x:v>
@@ -4056,10 +4071,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
         <x:v>15</x:v>
@@ -4079,7 +4094,7 @@
     </x:row>
     <x:row r="102">
       <x:c r="A102" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
         <x:v>109</x:v>
@@ -4088,10 +4103,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E102" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
         <x:v>15</x:v>
@@ -4127,7 +4142,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
@@ -4135,7 +4150,7 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
@@ -4144,10 +4159,27 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>265</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Ra55119103310467e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R4b82480dc0954b3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R4e6d2c4132f244fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R8444d9c592554992"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -753,39 +753,6 @@
   </x:si>
   <x:si>
     <x:t>Hebeanlage 2 Klappe Durchflußmenge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WSB OUT1 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M12.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WSB OUT2 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M12.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WSB OUT3 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M12.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WSB OUT4 M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%M12.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WSB OUT Byte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>%MB12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wasserstation Behälter Füllstand binär Byte</x:t>
   </x:si>
   <x:si>
     <x:t>Value</x:t>
@@ -3964,166 +3931,6 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="98">
-      <x:c r="A98" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C98" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="E98" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="F98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H98" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I98" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J98" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99">
-      <x:c r="A99" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C99" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D99" s="0" t="s">
-        <x:v>251</x:v>
-      </x:c>
-      <x:c r="E99" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="F99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H99" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I99" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J99" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100">
-      <x:c r="A100" s="0" t="s">
-        <x:v>252</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C100" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D100" s="0" t="s">
-        <x:v>253</x:v>
-      </x:c>
-      <x:c r="E100" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="F100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H100" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I100" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J100" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101">
-      <x:c r="A101" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C101" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D101" s="0" t="s">
-        <x:v>255</x:v>
-      </x:c>
-      <x:c r="E101" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="F101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H101" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J101" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102">
-      <x:c r="A102" s="0" t="s">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C102" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D102" s="0" t="s">
-        <x:v>257</x:v>
-      </x:c>
-      <x:c r="E102" s="0" t="s">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="F102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H102" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I102" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="J102" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
@@ -4142,7 +3949,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
@@ -4150,7 +3957,7 @@
     </x:row>
     <x:row r="2">
       <x:c r="A2" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
@@ -4159,15 +3966,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>11</x:v>
@@ -4176,10 +3983,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRC/PLCTags.xlsx
+++ b/SRC/PLCTags.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R4e6d2c4132f244fe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="R8444d9c592554992"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R4c0e5add33a34604"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Constants" sheetId="2" r:id="Rcb0ec09b60e748dd"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -299,7 +299,7 @@
     <x:t>Kühlturm 1 Ventilator Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>KT 1 Ventilator RS</x:t>
+    <x:t>KT 1 Ventilator RS ein</x:t>
   </x:si>
   <x:si>
     <x:t>%I0.4</x:t>
@@ -326,7 +326,7 @@
     <x:t>Kühlturm 2 Ventilator Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>KT 2 Ventilator RS</x:t>
+    <x:t>KT 2 Ventilator RS ein</x:t>
   </x:si>
   <x:si>
     <x:t>%I0.7</x:t>
